--- a/data/trans_camb/P20_5_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P20_5_R-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-12,38</t>
+          <t>-7,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-7,67</t>
+          <t>-4,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-9,69</t>
+          <t>-5,67</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,59; -5,03</t>
+          <t>-13,51; -1,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,53; -1,66</t>
+          <t>-9,03; 0,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,18; -5,06</t>
+          <t>-9,65; -1,84</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-19,01%</t>
+          <t>-18,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-11,69%</t>
+          <t>-8,48%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-14,82%</t>
+          <t>-12,8%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-29,28; -7,98</t>
+          <t>-31,12; -4,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,93; -2,7</t>
+          <t>-18,14; 2,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,39; -7,82</t>
+          <t>-20,87; -4,42</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,18</t>
+          <t>-4,87</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,79</t>
+          <t>-5,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,09</t>
+          <t>-5,44</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 1,36</t>
+          <t>-12,07; 1,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,14; -2,16</t>
+          <t>-12,23; -0,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,74; -2,27</t>
+          <t>-9,97; -0,97</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-12,35%</t>
+          <t>-12,64%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-13,31%</t>
+          <t>-12,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-12,99%</t>
+          <t>-12,64%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,35; 2,42</t>
+          <t>-28,76; 4,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,42; -3,37</t>
+          <t>-24,1; -0,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,14; -3,67</t>
+          <t>-22,32; -2,3</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-11,99</t>
+          <t>-6,11</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,46</t>
+          <t>-4,16</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 15,3</t>
+          <t>-15,19; 13,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-26,41; 0,42</t>
+          <t>-17,08; 5,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 4,15</t>
+          <t>-12,94; 5,87</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-5,1%</t>
+          <t>-5,73%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-17,21%</t>
+          <t>-12,2%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-11,97%</t>
+          <t>-9,46%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-30,1; 34,76</t>
+          <t>-36,44; 46,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,03; 0,41</t>
+          <t>-31,0; 12,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-25,8; 7,25</t>
+          <t>-27,21; 14,72</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-8,98</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-8,58</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-8,77</t>
+          <t>-5,4</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,62; -3,63</t>
+          <t>-9,83; -1,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,5; -4,26</t>
+          <t>-8,9; -1,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,02; -5,26</t>
+          <t>-8,09; -2,16</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-14,75%</t>
+          <t>-14,69%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-12,96%</t>
+          <t>-10,43%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-13,75%</t>
+          <t>-12,33%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-23,08; -6,17</t>
+          <t>-23,93; -4,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-18,87; -6,72</t>
+          <t>-17,96; -2,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,39; -8,53</t>
+          <t>-18,03; -5,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P20_5_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P20_5_R-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-7,46</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-4,07</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-5,67</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-12.62219684598663</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-7.748953443180417</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-9.842517041019782</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-13,51; -1,46</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-9,03; 0,98</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-9,65; -1,84</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-20.00486318770032</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-13.55267198477889</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-14.19314195979288</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-18,5%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-8,48%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-12,8%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-5.291479455131356</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-2.092915675376952</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-4.692904795989309</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-31,12; -4,09</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-18,14; 2,25</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-20,87; -4,42</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.1937960797818713</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.1181781819639824</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.1505463610712424</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-4,87</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-5,93</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-5,44</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.2939322107554999</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.197266526535989</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2140135711278297</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-12,07; 1,53</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-12,23; -0,06</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-9,97; -0,97</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>-0.08356975667377223</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>-0.030638388833557</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>-0.07505593141692823</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-12,64%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-12,51%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-12,64%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-8.702314834048014</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-7.558950745169346</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-8.210406696157079</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-28,76; 4,13</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-24,1; -0,08</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-22,32; -2,3</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-17.13140300727096</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-14.17536690609208</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-13.7123732584335</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-2,17</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-6,11</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-4,16</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.512973199403334</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-0.9814199773463426</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-2.393813594928254</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-15,19; 13,23</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-17,08; 5,29</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-12,94; 5,87</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.1496305789082801</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.1144476556948451</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.1318045131367225</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-5,73%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-12,2%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-9,46%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.2801138119709991</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.2084373197620647</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2133850823669791</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-36,44; 46,8</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-31,0; 12,0</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-27,21; 14,72</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.008088027366524617</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>-0.0155178040293006</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>-0.03927427206403918</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-5,78</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-5,01</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-5,4</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-2.950917587878088</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-9.083601505690497</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-6.075904186795322</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-9,83; -1,6</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-8,9; -1,22</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-8,09; -2,16</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-18.88593229837984</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-21.30295100707583</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-16.75021260176556</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-14,69%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-10,43%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-12,33%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>17.03889927260262</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>5.032229626721429</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>6.997304427188326</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-23,93; -4,23</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-17,96; -2,63</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-18,03; -5,26</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.05386444193689846</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.1303998434601713</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.0975768334158857</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.3113288823287587</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2922702579043024</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.2518643260187463</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.3982882794278209</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.07669188573839195</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.1314632759065306</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-9.735880803889962</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-7.852536333731496</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-8.729085329802921</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-14.93667077217108</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-12.20676587482575</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-12.07423883733973</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-3.811301768499108</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-3.846453877582512</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-5.067679571309176</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.1598867612691292</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.1185876283083733</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.1368830282252035</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.2392321016669265</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1781133162187315</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1858395702597162</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>-0.06664857864645204</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>-0.06007668556112017</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>-0.08080693886640819</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
